--- a/Project1Rubric_Ortega.xlsx
+++ b/Project1Rubric_Ortega.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tevis\Documents\WestMEC\START\Projects\Project1WebEssay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tevis\Documents\WestMEC\START\Projects\Project1WebEssay\Session1Graded\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rough Draft (30 pts)" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -184,6 +184,9 @@
   <si>
     <t>30/30</t>
   </si>
+  <si>
+    <t>40/40</t>
+  </si>
 </sst>
 </file>
 
@@ -309,13 +312,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,13 +663,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -749,7 +752,7 @@
       <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -766,7 +769,7 @@
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -783,7 +786,7 @@
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -7670,7 +7673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F995"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7699,13 +7702,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -7788,7 +7791,7 @@
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -7805,7 +7808,7 @@
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -7822,7 +7825,7 @@
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -14709,8 +14712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14721,7 +14724,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -14735,13 +14740,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -14824,7 +14829,7 @@
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -14841,7 +14846,7 @@
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -14858,7 +14863,7 @@
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -14875,7 +14880,7 @@
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -14892,7 +14897,7 @@
       <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="12" t="s">
